--- a/medicine/Enfance/Un_monde_parfait_(chanson)/Un_monde_parfait_(chanson).xlsx
+++ b/medicine/Enfance/Un_monde_parfait_(chanson)/Un_monde_parfait_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un monde parfait est une chanson enfantine française, premier single d'Ilona Mitrecey, sorti le 27 février 2005 chez Sony BMG, extrait de son premier album Un monde parfait. Elle est sortie sous le titre Très bien avec Ilona en Italie en 2004, un an avant sa parution en France. Ce tube single est classé entre autres meilleur vente en France pendant 15 semaines, et en Belgique, avec 1,5 million d'exemplaires vendus[1].
+Un monde parfait est une chanson enfantine française, premier single d'Ilona Mitrecey, sorti le 27 février 2005 chez Sony BMG, extrait de son premier album Un monde parfait. Elle est sortie sous le titre Très bien avec Ilona en Italie en 2004, un an avant sa parution en France. Ce tube single est classé entre autres meilleur vente en France pendant 15 semaines, et en Belgique, avec 1,5 million d'exemplaires vendus.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec sa chanson enfantine, Ilona (alors âgée de 12 ans) se sent sage comme une image, et s’endort au pays des merveilles, en faisant des dessins d'un monde imaginaire parfait.
 </t>
@@ -545,15 +559,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD single - France
-CD maxi Universal
-CD maxi 1 Atollo / Universal
-CD maxi 2 Atollo / Universal
-12" maxi
-Digital download
-</t>
-        </is>
-      </c>
+          <t>CD single - France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,10 +586,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Classement, certifications et ventes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CD maxi Universal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +623,188 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CD maxi 1 Atollo / Universal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CD maxi 2 Atollo / Universal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12" maxi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital download</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classement, certifications et ventes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_monde_parfait_(chanson)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Un monde parfait figure dans la bande originale du long métrage Deux Jours à tuer de Jean Becker.</t>
